--- a/RetoConglomerados.xlsx
+++ b/RetoConglomerados.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10c980c14c46dbca/Documentos/Tec de Monterrey/Clases/5to Semestre/Minería de Datos/Entregable-2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b81252abd738e69/Escritorio/ITESM/Enfoque LIT/Parte 2/Minería de datos/EntregableE1.2/Entregable-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{09E38EDF-8543-4671-A83B-DDC74AF78D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AB24D07-4276-48AD-ABEE-3ACFD7D57924}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{09E38EDF-8543-4671-A83B-DDC74AF78D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EECD90E-987C-4DB0-8124-8DE6EDB639D4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATOS" sheetId="1" r:id="rId1"/>
     <sheet name="Variables" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DATOS!$A$1:$W$659</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DATOS!$O$1:$O$1000</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -1565,22 +1565,22 @@
   <dimension ref="A1:W1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
-    <col min="2" max="2" width="31.21875" customWidth="1"/>
-    <col min="3" max="12" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" customWidth="1"/>
+    <col min="2" max="2" width="31.1796875" customWidth="1"/>
+    <col min="3" max="12" width="10.81640625" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="21" width="10.77734375" customWidth="1"/>
-    <col min="22" max="22" width="16.21875" customWidth="1"/>
-    <col min="23" max="23" width="11.44140625" customWidth="1"/>
-    <col min="24" max="26" width="10.77734375" customWidth="1"/>
+    <col min="14" max="21" width="10.81640625" customWidth="1"/>
+    <col min="22" max="22" width="16.1796875" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" customWidth="1"/>
+    <col min="24" max="26" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>26</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>17500</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>1046.4000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>24</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>24</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>387.66</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>31</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>12738</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>33</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>7150</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>35</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>37</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>40</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>622.45000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>40</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>45</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>31</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>47200</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>33</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>7129.3</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>45</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>2048.5</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>37</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>455.48700000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>37</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>694.77</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>50</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>8087.0450000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>52</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>1827.9490000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>26</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>17666</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>33</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>35</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>52</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>52</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>43</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>35</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>33</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>4091</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>24</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>1046.4000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>24</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>33</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>11312.977999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>68</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>649.84500000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>24</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>40</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>522.43100000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>40</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>472.5</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>24</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>40</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>33</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>14666.293</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>43</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>33</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
         <v>40</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>40</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>40</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>79</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>31</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>14900</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>37</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>35</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>3266.7080000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>43</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
         <v>33</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>40</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>45</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>33</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>8524</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>24</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>31</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>10100</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>45</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>4990</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>26</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>20900</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
         <v>31</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="9" t="s">
         <v>35</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
         <v>24</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>586.75</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
         <v>26</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>8440</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
         <v>24</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
         <v>45</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>43</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
         <v>40</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>505.49799999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>43</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>79</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>4570</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
         <v>40</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>285.19200000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>20</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
         <v>98</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>4586.3999999999996</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="s">
         <v>40</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>192.5</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="9" t="s">
         <v>33</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>4995.8249999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="s">
         <v>40</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>258.97199999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>79</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="9" t="s">
         <v>52</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="s">
         <v>24</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>3539</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="9" t="s">
         <v>31</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>15999</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="9" t="s">
         <v>31</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="9" t="s">
         <v>26</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>14950</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>35</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>3280</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="9" t="s">
         <v>33</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>4578.22</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="9" t="s">
         <v>40</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>802.96299999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>20</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="9" t="s">
         <v>45</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="9" t="s">
         <v>37</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="9" t="s">
         <v>33</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>7224.9139999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="9" t="s">
         <v>24</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="9" t="s">
         <v>33</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="92" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="9" t="s">
         <v>33</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>6750</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>20</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="9" t="s">
         <v>31</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>14500</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="9" t="s">
         <v>52</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="9" t="s">
         <v>31</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>14900</v>
       </c>
     </row>
-    <row r="97" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="9" t="s">
         <v>26</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>9297.6530000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>43</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>43</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="9" t="s">
         <v>40</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="101" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="9" t="s">
         <v>31</v>
       </c>
@@ -8751,7 +8751,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>43</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="103" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="9" t="s">
         <v>50</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>43</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="105" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>79</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="106" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="9" t="s">
         <v>68</v>
       </c>
@@ -9106,7 +9106,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="107" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>43</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="108" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="9" t="s">
         <v>98</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>6338.53</v>
       </c>
     </row>
-    <row r="109" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="9" t="s">
         <v>45</v>
       </c>
@@ -9319,7 +9319,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="110" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="9" t="s">
         <v>33</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>128524</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>43</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>43</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="9" t="s">
         <v>40</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>268.97199999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="9" t="s">
         <v>98</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="115" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>20</v>
       </c>
@@ -9745,7 +9745,7 @@
         <v>15500</v>
       </c>
     </row>
-    <row r="116" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="9" t="s">
         <v>50</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>3990</v>
       </c>
     </row>
-    <row r="117" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="9" t="s">
         <v>40</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>798.5</v>
       </c>
     </row>
-    <row r="118" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>43</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="119" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="9" t="s">
         <v>33</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="120" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="9" t="s">
         <v>24</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>1090.9000000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="9" t="s">
         <v>40</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="9" t="s">
         <v>40</v>
       </c>
@@ -10242,7 +10242,7 @@
         <v>629.38400000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="9" t="s">
         <v>40</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="9" t="s">
         <v>24</v>
       </c>
@@ -10384,7 +10384,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="125" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="9" t="s">
         <v>26</v>
       </c>
@@ -10455,7 +10455,7 @@
         <v>11200</v>
       </c>
     </row>
-    <row r="126" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>43</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="127" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="9" t="s">
         <v>33</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="128" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>43</v>
       </c>
@@ -10668,7 +10668,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="129" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="9" t="s">
         <v>35</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="130" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="9" t="s">
         <v>98</v>
       </c>
@@ -10810,7 +10810,7 @@
         <v>5950</v>
       </c>
     </row>
-    <row r="131" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="9" t="s">
         <v>40</v>
       </c>
@@ -10881,7 +10881,7 @@
         <v>357.6</v>
       </c>
     </row>
-    <row r="132" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="9" t="s">
         <v>98</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>3323</v>
       </c>
     </row>
-    <row r="133" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="9" t="s">
         <v>52</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="134" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="9" t="s">
         <v>24</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="135" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="9" t="s">
         <v>45</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="136" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="9" t="s">
         <v>31</v>
       </c>
@@ -11236,7 +11236,7 @@
         <v>11850</v>
       </c>
     </row>
-    <row r="137" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="9" t="s">
         <v>45</v>
       </c>
@@ -11307,7 +11307,7 @@
         <v>3148</v>
       </c>
     </row>
-    <row r="138" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>43</v>
       </c>
@@ -11378,7 +11378,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="139" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="9" t="s">
         <v>24</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="140" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="9" t="s">
         <v>98</v>
       </c>
@@ -11520,7 +11520,7 @@
         <v>3381</v>
       </c>
     </row>
-    <row r="141" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="9" t="s">
         <v>50</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="142" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="9" t="s">
         <v>40</v>
       </c>
@@ -11662,7 +11662,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="143" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>43</v>
       </c>
@@ -11733,7 +11733,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="144" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="9" t="s">
         <v>45</v>
       </c>
@@ -11804,7 +11804,7 @@
         <v>4350</v>
       </c>
     </row>
-    <row r="145" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="9" t="s">
         <v>24</v>
       </c>
@@ -11875,7 +11875,7 @@
         <v>1537.806</v>
       </c>
     </row>
-    <row r="146" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>43</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="147" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>79</v>
       </c>
@@ -12017,7 +12017,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="148" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="9" t="s">
         <v>40</v>
       </c>
@@ -12088,7 +12088,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="149" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="9" t="s">
         <v>52</v>
       </c>
@@ -12159,7 +12159,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="150" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="9" t="s">
         <v>68</v>
       </c>
@@ -12230,7 +12230,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="151" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="9" t="s">
         <v>52</v>
       </c>
@@ -12301,7 +12301,7 @@
         <v>2990</v>
       </c>
     </row>
-    <row r="152" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>43</v>
       </c>
@@ -12372,7 +12372,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="153" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="9" t="s">
         <v>33</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>9292</v>
       </c>
     </row>
-    <row r="154" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="9" t="s">
         <v>40</v>
       </c>
@@ -12514,7 +12514,7 @@
         <v>404.34800000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>20</v>
       </c>
@@ -12585,7 +12585,7 @@
         <v>8190</v>
       </c>
     </row>
-    <row r="156" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="9" t="s">
         <v>24</v>
       </c>
@@ -12656,7 +12656,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="157" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="9" t="s">
         <v>24</v>
       </c>
@@ -12727,7 +12727,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="158" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="9" t="s">
         <v>50</v>
       </c>
@@ -12798,7 +12798,7 @@
         <v>4071.45</v>
       </c>
     </row>
-    <row r="159" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="9" t="s">
         <v>33</v>
       </c>
@@ -12869,7 +12869,7 @@
         <v>14500</v>
       </c>
     </row>
-    <row r="160" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="9" t="s">
         <v>98</v>
       </c>
@@ -12940,7 +12940,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="161" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="9" t="s">
         <v>24</v>
       </c>
@@ -13011,7 +13011,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="162" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="9" t="s">
         <v>37</v>
       </c>
@@ -13082,7 +13082,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="163" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="9" t="s">
         <v>45</v>
       </c>
@@ -13153,7 +13153,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="164" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
         <v>43</v>
       </c>
@@ -13224,7 +13224,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="165" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>79</v>
       </c>
@@ -13295,7 +13295,7 @@
         <v>2359.9989999999998</v>
       </c>
     </row>
-    <row r="166" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="9" t="s">
         <v>40</v>
       </c>
@@ -13366,7 +13366,7 @@
         <v>657.58</v>
       </c>
     </row>
-    <row r="167" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
         <v>43</v>
       </c>
@@ -13437,7 +13437,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="168" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
         <v>79</v>
       </c>
@@ -13508,7 +13508,7 @@
         <v>1918.08</v>
       </c>
     </row>
-    <row r="169" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
         <v>43</v>
       </c>
@@ -13579,7 +13579,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="170" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="9" t="s">
         <v>24</v>
       </c>
@@ -13650,7 +13650,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="171" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="9" t="s">
         <v>26</v>
       </c>
@@ -13721,7 +13721,7 @@
         <v>10700</v>
       </c>
     </row>
-    <row r="172" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
         <v>43</v>
       </c>
@@ -13792,7 +13792,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="173" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="9" t="s">
         <v>33</v>
       </c>
@@ -13863,7 +13863,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="174" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="9" t="s">
         <v>24</v>
       </c>
@@ -13934,7 +13934,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="175" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="9" t="s">
         <v>98</v>
       </c>
@@ -14005,7 +14005,7 @@
         <v>6950</v>
       </c>
     </row>
-    <row r="176" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="9" t="s">
         <v>40</v>
       </c>
@@ -14076,7 +14076,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="177" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="9" t="s">
         <v>52</v>
       </c>
@@ -14147,7 +14147,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="178" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="9" t="s">
         <v>52</v>
       </c>
@@ -14218,7 +14218,7 @@
         <v>2130.886</v>
       </c>
     </row>
-    <row r="179" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="9" t="s">
         <v>168</v>
       </c>
@@ -14289,7 +14289,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="180" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="9" t="s">
         <v>26</v>
       </c>
@@ -14360,7 +14360,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="181" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="9" t="s">
         <v>24</v>
       </c>
@@ -14431,7 +14431,7 @@
         <v>509.12</v>
       </c>
     </row>
-    <row r="182" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="9" t="s">
         <v>50</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>5524</v>
       </c>
     </row>
-    <row r="183" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="9" t="s">
         <v>31</v>
       </c>
@@ -14573,7 +14573,7 @@
         <v>15118</v>
       </c>
     </row>
-    <row r="184" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
         <v>79</v>
       </c>
@@ -14644,7 +14644,7 @@
         <v>9910</v>
       </c>
     </row>
-    <row r="185" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="9" t="s">
         <v>24</v>
       </c>
@@ -14715,7 +14715,7 @@
         <v>353.8</v>
       </c>
     </row>
-    <row r="186" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="9" t="s">
         <v>33</v>
       </c>
@@ -14786,7 +14786,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="187" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
         <v>43</v>
       </c>
@@ -14857,7 +14857,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="188" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="9" t="s">
         <v>24</v>
       </c>
@@ -14928,7 +14928,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="189" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="9" t="s">
         <v>40</v>
       </c>
@@ -14999,7 +14999,7 @@
         <v>802.96299999999997</v>
       </c>
     </row>
-    <row r="190" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="9" t="s">
         <v>24</v>
       </c>
@@ -15070,7 +15070,7 @@
         <v>1537.806</v>
       </c>
     </row>
-    <row r="191" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="9" t="s">
         <v>40</v>
       </c>
@@ -15141,7 +15141,7 @@
         <v>308.28500000000003</v>
       </c>
     </row>
-    <row r="192" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="9" t="s">
         <v>40</v>
       </c>
@@ -15212,7 +15212,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="193" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="9" t="s">
         <v>35</v>
       </c>
@@ -15283,7 +15283,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="194" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="9" t="s">
         <v>33</v>
       </c>
@@ -15354,7 +15354,7 @@
         <v>5434.28</v>
       </c>
     </row>
-    <row r="195" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
         <v>43</v>
       </c>
@@ -15425,7 +15425,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="196" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="9" t="s">
         <v>52</v>
       </c>
@@ -15496,7 +15496,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="197" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
         <v>43</v>
       </c>
@@ -15567,7 +15567,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="198" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="9" t="s">
         <v>40</v>
       </c>
@@ -15638,7 +15638,7 @@
         <v>791.52800000000002</v>
       </c>
     </row>
-    <row r="199" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="9" t="s">
         <v>33</v>
       </c>
@@ -15709,7 +15709,7 @@
         <v>4522.1909999999998</v>
       </c>
     </row>
-    <row r="200" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
         <v>43</v>
       </c>
@@ -15780,7 +15780,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="201" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
         <v>79</v>
       </c>
@@ -15851,7 +15851,7 @@
         <v>5252</v>
       </c>
     </row>
-    <row r="202" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="9" t="s">
         <v>45</v>
       </c>
@@ -15922,7 +15922,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="203" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="s">
         <v>43</v>
       </c>
@@ -15993,7 +15993,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="204" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="9" t="s">
         <v>40</v>
       </c>
@@ -16064,7 +16064,7 @@
         <v>737.35400000000004</v>
       </c>
     </row>
-    <row r="205" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="9" t="s">
         <v>24</v>
       </c>
@@ -16135,7 +16135,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="206" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="9" t="s">
         <v>31</v>
       </c>
@@ -16206,7 +16206,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="207" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="9" t="s">
         <v>31</v>
       </c>
@@ -16277,7 +16277,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="208" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="9" t="s">
         <v>24</v>
       </c>
@@ -16348,7 +16348,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="209" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="9" t="s">
         <v>33</v>
       </c>
@@ -16419,7 +16419,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="210" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="9" t="s">
         <v>33</v>
       </c>
@@ -16490,7 +16490,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="211" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="9" t="s">
         <v>52</v>
       </c>
@@ -16561,7 +16561,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="212" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="9" t="s">
         <v>31</v>
       </c>
@@ -16632,7 +16632,7 @@
         <v>34900</v>
       </c>
     </row>
-    <row r="213" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="9" t="s">
         <v>33</v>
       </c>
@@ -16703,7 +16703,7 @@
         <v>4160</v>
       </c>
     </row>
-    <row r="214" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="9" t="s">
         <v>52</v>
       </c>
@@ -16774,7 +16774,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="215" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="9" t="s">
         <v>33</v>
       </c>
@@ -16845,7 +16845,7 @@
         <v>8900</v>
       </c>
     </row>
-    <row r="216" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="3" t="s">
         <v>79</v>
       </c>
@@ -16916,7 +16916,7 @@
         <v>23609.25</v>
       </c>
     </row>
-    <row r="217" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="3" t="s">
         <v>79</v>
       </c>
@@ -16987,7 +16987,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="218" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="9" t="s">
         <v>37</v>
       </c>
@@ -17058,7 +17058,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="219" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="9" t="s">
         <v>168</v>
       </c>
@@ -17129,7 +17129,7 @@
         <v>290.59800000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="9" t="s">
         <v>37</v>
       </c>
@@ -17200,7 +17200,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="221" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="9" t="s">
         <v>31</v>
       </c>
@@ -17271,7 +17271,7 @@
         <v>13900</v>
       </c>
     </row>
-    <row r="222" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="3" t="s">
         <v>79</v>
       </c>
@@ -17342,7 +17342,7 @@
         <v>4375</v>
       </c>
     </row>
-    <row r="223" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="9" t="s">
         <v>40</v>
       </c>
@@ -17413,7 +17413,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="224" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="9" t="s">
         <v>24</v>
       </c>
@@ -17484,7 +17484,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="225" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="3" t="s">
         <v>43</v>
       </c>
@@ -17555,7 +17555,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="226" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="9" t="s">
         <v>50</v>
       </c>
@@ -17626,7 +17626,7 @@
         <v>2831.8989999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="9" t="s">
         <v>31</v>
       </c>
@@ -17697,7 +17697,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="228" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="9" t="s">
         <v>37</v>
       </c>
@@ -17768,7 +17768,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="229" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="9" t="s">
         <v>50</v>
       </c>
@@ -17839,7 +17839,7 @@
         <v>6224</v>
       </c>
     </row>
-    <row r="230" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="9" t="s">
         <v>52</v>
       </c>
@@ -17910,7 +17910,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="231" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="3" t="s">
         <v>43</v>
       </c>
@@ -17981,7 +17981,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="232" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="9" t="s">
         <v>40</v>
       </c>
@@ -18052,7 +18052,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="233" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="3" t="s">
         <v>43</v>
       </c>
@@ -18123,7 +18123,7 @@
         <v>1747.5029999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="9" t="s">
         <v>40</v>
       </c>
@@ -18194,7 +18194,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="235" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="9" t="s">
         <v>40</v>
       </c>
@@ -18265,7 +18265,7 @@
         <v>860.65700000000004</v>
       </c>
     </row>
-    <row r="236" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="9" t="s">
         <v>24</v>
       </c>
@@ -18336,7 +18336,7 @@
         <v>1114.8</v>
       </c>
     </row>
-    <row r="237" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="9" t="s">
         <v>31</v>
       </c>
@@ -18407,7 +18407,7 @@
         <v>13295.263000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="9" t="s">
         <v>50</v>
       </c>
@@ -18478,7 +18478,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="239" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="9" t="s">
         <v>40</v>
       </c>
@@ -18549,7 +18549,7 @@
         <v>219.99</v>
       </c>
     </row>
-    <row r="240" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="9" t="s">
         <v>37</v>
       </c>
@@ -18620,7 +18620,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="241" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="3" t="s">
         <v>79</v>
       </c>
@@ -18691,7 +18691,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="242" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="3" t="s">
         <v>79</v>
       </c>
@@ -18762,7 +18762,7 @@
         <v>3990</v>
       </c>
     </row>
-    <row r="243" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="9" t="s">
         <v>40</v>
       </c>
@@ -18833,7 +18833,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="244" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="9" t="s">
         <v>40</v>
       </c>
@@ -18904,7 +18904,7 @@
         <v>932.06700000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="9" t="s">
         <v>24</v>
       </c>
@@ -18975,7 +18975,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="246" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="9" t="s">
         <v>37</v>
       </c>
@@ -19046,7 +19046,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="247" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="3" t="s">
         <v>43</v>
       </c>
@@ -19117,7 +19117,7 @@
         <v>561.4</v>
       </c>
     </row>
-    <row r="248" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="9" t="s">
         <v>33</v>
       </c>
@@ -19188,7 +19188,7 @@
         <v>6900</v>
       </c>
     </row>
-    <row r="249" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="3" t="s">
         <v>168</v>
       </c>
@@ -19259,7 +19259,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="250" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="9" t="s">
         <v>24</v>
       </c>
@@ -19330,7 +19330,7 @@
         <v>1106.0999999999999</v>
       </c>
     </row>
-    <row r="251" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="3" t="s">
         <v>35</v>
       </c>
@@ -19401,7 +19401,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="252" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="9" t="s">
         <v>24</v>
       </c>
@@ -19472,7 +19472,7 @@
         <v>505.84</v>
       </c>
     </row>
-    <row r="253" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="9" t="s">
         <v>33</v>
       </c>
@@ -19543,7 +19543,7 @@
         <v>5547.8</v>
       </c>
     </row>
-    <row r="254" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="9" t="s">
         <v>40</v>
       </c>
@@ -19614,7 +19614,7 @@
         <v>619.9</v>
       </c>
     </row>
-    <row r="255" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="3" t="s">
         <v>43</v>
       </c>
@@ -19685,7 +19685,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="256" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="9" t="s">
         <v>24</v>
       </c>
@@ -19756,7 +19756,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="257" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="9" t="s">
         <v>24</v>
       </c>
@@ -19827,7 +19827,7 @@
         <v>115.7</v>
       </c>
     </row>
-    <row r="258" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="3" t="s">
         <v>43</v>
       </c>
@@ -19898,7 +19898,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="259" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="9" t="s">
         <v>45</v>
       </c>
@@ -19969,7 +19969,7 @@
         <v>1872.925</v>
       </c>
     </row>
-    <row r="260" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="9" t="s">
         <v>40</v>
       </c>
@@ -20040,7 +20040,7 @@
         <v>317.21800000000002</v>
       </c>
     </row>
-    <row r="261" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="9" t="s">
         <v>35</v>
       </c>
@@ -20111,7 +20111,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="262" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="9" t="s">
         <v>26</v>
       </c>
@@ -20182,7 +20182,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="263" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="9" t="s">
         <v>40</v>
       </c>
@@ -20253,7 +20253,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="264" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="9" t="s">
         <v>24</v>
       </c>
@@ -20324,7 +20324,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="265" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="9" t="s">
         <v>33</v>
       </c>
@@ -20395,7 +20395,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="266" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="9" t="s">
         <v>98</v>
       </c>
@@ -20466,7 +20466,7 @@
         <v>3542.9409999999998</v>
       </c>
     </row>
-    <row r="267" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="9" t="s">
         <v>33</v>
       </c>
@@ -20537,7 +20537,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="268" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="3" t="s">
         <v>79</v>
       </c>
@@ -20608,7 +20608,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="269" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="9" t="s">
         <v>26</v>
       </c>
@@ -20679,7 +20679,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="270" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="3" t="s">
         <v>20</v>
       </c>
@@ -20750,7 +20750,7 @@
         <v>15500</v>
       </c>
     </row>
-    <row r="271" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="9" t="s">
         <v>37</v>
       </c>
@@ -20821,7 +20821,7 @@
         <v>683.33299999999997</v>
       </c>
     </row>
-    <row r="272" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="9" t="s">
         <v>33</v>
       </c>
@@ -20892,7 +20892,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="273" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="9" t="s">
         <v>33</v>
       </c>
@@ -20963,7 +20963,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="274" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="9" t="s">
         <v>50</v>
       </c>
@@ -21034,7 +21034,7 @@
         <v>3900.2489999999998</v>
       </c>
     </row>
-    <row r="275" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="9" t="s">
         <v>33</v>
       </c>
@@ -21105,7 +21105,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="276" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="9" t="s">
         <v>26</v>
       </c>
@@ -21176,7 +21176,7 @@
         <v>10175.455</v>
       </c>
     </row>
-    <row r="277" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="9" t="s">
         <v>33</v>
       </c>
@@ -21247,7 +21247,7 @@
         <v>5450</v>
       </c>
     </row>
-    <row r="278" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="9" t="s">
         <v>37</v>
       </c>
@@ -21318,7 +21318,7 @@
         <v>637.65</v>
       </c>
     </row>
-    <row r="279" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="9" t="s">
         <v>33</v>
       </c>
@@ -21389,7 +21389,7 @@
         <v>3777.8150000000001</v>
       </c>
     </row>
-    <row r="280" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="9" t="s">
         <v>45</v>
       </c>
@@ -21460,7 +21460,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="281" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="9" t="s">
         <v>45</v>
       </c>
@@ -21531,7 +21531,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="282" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="9" t="s">
         <v>24</v>
       </c>
@@ -21602,7 +21602,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="283" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="9" t="s">
         <v>26</v>
       </c>
@@ -21673,7 +21673,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="284" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="3" t="s">
         <v>43</v>
       </c>
@@ -21744,7 +21744,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="285" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="9" t="s">
         <v>24</v>
       </c>
@@ -21815,7 +21815,7 @@
         <v>789.99900000000002</v>
       </c>
     </row>
-    <row r="286" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="9" t="s">
         <v>40</v>
       </c>
@@ -21886,7 +21886,7 @@
         <v>746.41899999999998</v>
       </c>
     </row>
-    <row r="287" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="3" t="s">
         <v>79</v>
       </c>
@@ -21957,7 +21957,7 @@
         <v>2365.7399999999998</v>
       </c>
     </row>
-    <row r="288" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="3" t="s">
         <v>43</v>
       </c>
@@ -22028,7 +22028,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="289" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="9" t="s">
         <v>45</v>
       </c>
@@ -22099,7 +22099,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="290" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="9" t="s">
         <v>45</v>
       </c>
@@ -22170,7 +22170,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="291" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="9" t="s">
         <v>35</v>
       </c>
@@ -22241,7 +22241,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="292" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="9" t="s">
         <v>33</v>
       </c>
@@ -22312,7 +22312,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="293" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="9" t="s">
         <v>45</v>
       </c>
@@ -22383,7 +22383,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="294" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="9" t="s">
         <v>24</v>
       </c>
@@ -22454,7 +22454,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="295" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="9" t="s">
         <v>98</v>
       </c>
@@ -22525,7 +22525,7 @@
         <v>5950</v>
       </c>
     </row>
-    <row r="296" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="9" t="s">
         <v>98</v>
       </c>
@@ -22596,7 +22596,7 @@
         <v>3090</v>
       </c>
     </row>
-    <row r="297" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="9" t="s">
         <v>45</v>
       </c>
@@ -22667,7 +22667,7 @@
         <v>4108.8029999999999</v>
       </c>
     </row>
-    <row r="298" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="3" t="s">
         <v>43</v>
       </c>
@@ -22738,7 +22738,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="299" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="9" t="s">
         <v>24</v>
       </c>
@@ -22809,7 +22809,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="300" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="9" t="s">
         <v>24</v>
       </c>
@@ -22880,7 +22880,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="301" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="3" t="s">
         <v>43</v>
       </c>
@@ -22951,7 +22951,7 @@
         <v>2624</v>
       </c>
     </row>
-    <row r="302" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="9" t="s">
         <v>33</v>
       </c>
@@ -23022,7 +23022,7 @@
         <v>7350</v>
       </c>
     </row>
-    <row r="303" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="9" t="s">
         <v>52</v>
       </c>
@@ -23093,7 +23093,7 @@
         <v>2328.4409999999998</v>
       </c>
     </row>
-    <row r="304" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="9" t="s">
         <v>52</v>
       </c>
@@ -23164,7 +23164,7 @@
         <v>3465</v>
       </c>
     </row>
-    <row r="305" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="9" t="s">
         <v>52</v>
       </c>
@@ -23235,7 +23235,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="306" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="3" t="s">
         <v>43</v>
       </c>
@@ -23306,7 +23306,7 @@
         <v>776.86</v>
       </c>
     </row>
-    <row r="307" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="9" t="s">
         <v>50</v>
       </c>
@@ -23377,7 +23377,7 @@
         <v>5115</v>
       </c>
     </row>
-    <row r="308" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="9" t="s">
         <v>33</v>
       </c>
@@ -23448,7 +23448,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="309" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="3" t="s">
         <v>43</v>
       </c>
@@ -23519,7 +23519,7 @@
         <v>441.84</v>
       </c>
     </row>
-    <row r="310" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="3" t="s">
         <v>20</v>
       </c>
@@ -23590,7 +23590,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="311" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="9" t="s">
         <v>24</v>
       </c>
@@ -23661,7 +23661,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="312" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="9" t="s">
         <v>33</v>
       </c>
@@ -23732,7 +23732,7 @@
         <v>14500</v>
       </c>
     </row>
-    <row r="313" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="3" t="s">
         <v>43</v>
       </c>
@@ -23803,7 +23803,7 @@
         <v>350.99400000000003</v>
       </c>
     </row>
-    <row r="314" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="9" t="s">
         <v>31</v>
       </c>
@@ -23874,7 +23874,7 @@
         <v>8217</v>
       </c>
     </row>
-    <row r="315" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="9" t="s">
         <v>24</v>
       </c>
@@ -23945,7 +23945,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="316" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="9" t="s">
         <v>33</v>
       </c>
@@ -24016,7 +24016,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="317" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="9" t="s">
         <v>40</v>
       </c>
@@ -24087,7 +24087,7 @@
         <v>488.13799999999998</v>
       </c>
     </row>
-    <row r="318" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="9" t="s">
         <v>45</v>
       </c>
@@ -24158,7 +24158,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="319" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="3" t="s">
         <v>43</v>
       </c>
@@ -24229,7 +24229,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="320" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="3" t="s">
         <v>43</v>
       </c>
@@ -24300,7 +24300,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="321" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="9" t="s">
         <v>33</v>
       </c>
@@ -24371,7 +24371,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="322" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="9" t="s">
         <v>98</v>
       </c>
@@ -24442,7 +24442,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="323" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="9" t="s">
         <v>33</v>
       </c>
@@ -24513,7 +24513,7 @@
         <v>4045.4349999999999</v>
       </c>
     </row>
-    <row r="324" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="3" t="s">
         <v>43</v>
       </c>
@@ -24584,7 +24584,7 @@
         <v>1752.7090000000001</v>
       </c>
     </row>
-    <row r="325" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="9" t="s">
         <v>40</v>
       </c>
@@ -24655,7 +24655,7 @@
         <v>825.2</v>
       </c>
     </row>
-    <row r="326" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="3" t="s">
         <v>43</v>
       </c>
@@ -24726,7 +24726,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="327" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="9" t="s">
         <v>40</v>
       </c>
@@ -24797,7 +24797,7 @@
         <v>499.98099999999999</v>
       </c>
     </row>
-    <row r="328" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="9" t="s">
         <v>40</v>
       </c>
@@ -24868,7 +24868,7 @@
         <v>534.1</v>
       </c>
     </row>
-    <row r="329" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="3" t="s">
         <v>43</v>
       </c>
@@ -24939,7 +24939,7 @@
         <v>491.40100000000001</v>
       </c>
     </row>
-    <row r="330" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="9" t="s">
         <v>37</v>
       </c>
@@ -25010,7 +25010,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="331" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="9" t="s">
         <v>40</v>
       </c>
@@ -25081,7 +25081,7 @@
         <v>969.50599999999997</v>
       </c>
     </row>
-    <row r="332" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="9" t="s">
         <v>33</v>
       </c>
@@ -25152,7 +25152,7 @@
         <v>13800</v>
       </c>
     </row>
-    <row r="333" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333" s="9" t="s">
         <v>33</v>
       </c>
@@ -25223,7 +25223,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="334" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="9" t="s">
         <v>33</v>
       </c>
@@ -25294,7 +25294,7 @@
         <v>10290</v>
       </c>
     </row>
-    <row r="335" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="9" t="s">
         <v>52</v>
       </c>
@@ -25365,7 +25365,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="336" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336" s="9" t="s">
         <v>33</v>
       </c>
@@ -25436,7 +25436,7 @@
         <v>4970</v>
       </c>
     </row>
-    <row r="337" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="9" t="s">
         <v>168</v>
       </c>
@@ -25507,7 +25507,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="338" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="9" t="s">
         <v>40</v>
       </c>
@@ -25578,7 +25578,7 @@
         <v>622.55999999999995</v>
       </c>
     </row>
-    <row r="339" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339" s="9" t="s">
         <v>45</v>
       </c>
@@ -25649,7 +25649,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="340" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A340" s="9" t="s">
         <v>98</v>
       </c>
@@ -25720,7 +25720,7 @@
         <v>6231</v>
       </c>
     </row>
-    <row r="341" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A341" s="9" t="s">
         <v>37</v>
       </c>
@@ -25791,7 +25791,7 @@
         <v>246.8</v>
       </c>
     </row>
-    <row r="342" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A342" s="9" t="s">
         <v>50</v>
       </c>
@@ -25862,7 +25862,7 @@
         <v>4497.68</v>
       </c>
     </row>
-    <row r="343" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A343" s="9" t="s">
         <v>45</v>
       </c>
@@ -25933,7 +25933,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="344" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="9" t="s">
         <v>37</v>
       </c>
@@ -26004,7 +26004,7 @@
         <v>578.197</v>
       </c>
     </row>
-    <row r="345" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A345" s="9" t="s">
         <v>33</v>
       </c>
@@ -26075,7 +26075,7 @@
         <v>15300</v>
       </c>
     </row>
-    <row r="346" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A346" s="9" t="s">
         <v>24</v>
       </c>
@@ -26146,7 +26146,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="347" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347" s="9" t="s">
         <v>45</v>
       </c>
@@ -26217,7 +26217,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="348" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A348" s="9" t="s">
         <v>24</v>
       </c>
@@ -26288,7 +26288,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="349" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A349" s="9" t="s">
         <v>52</v>
       </c>
@@ -26359,7 +26359,7 @@
         <v>3549</v>
       </c>
     </row>
-    <row r="350" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="9" t="s">
         <v>168</v>
       </c>
@@ -26430,7 +26430,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="351" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A351" s="9" t="s">
         <v>35</v>
       </c>
@@ -26501,7 +26501,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="352" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A352" s="9" t="s">
         <v>26</v>
       </c>
@@ -26572,7 +26572,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="353" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="9" t="s">
         <v>40</v>
       </c>
@@ -26643,7 +26643,7 @@
         <v>2026.4659999999999</v>
       </c>
     </row>
-    <row r="354" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="9" t="s">
         <v>33</v>
       </c>
@@ -26714,7 +26714,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="355" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="9" t="s">
         <v>26</v>
       </c>
@@ -26785,7 +26785,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="356" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="9" t="s">
         <v>50</v>
       </c>
@@ -26856,7 +26856,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="357" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A357" s="9" t="s">
         <v>24</v>
       </c>
@@ -26927,7 +26927,7 @@
         <v>725.3</v>
       </c>
     </row>
-    <row r="358" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A358" s="9" t="s">
         <v>31</v>
       </c>
@@ -26998,7 +26998,7 @@
         <v>14672</v>
       </c>
     </row>
-    <row r="359" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359" s="3" t="s">
         <v>43</v>
       </c>
@@ -27069,7 +27069,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="360" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A360" s="3" t="s">
         <v>79</v>
       </c>
@@ -27140,7 +27140,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="361" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A361" s="3" t="s">
         <v>43</v>
       </c>
@@ -27211,7 +27211,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="362" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="9" t="s">
         <v>98</v>
       </c>
@@ -27282,7 +27282,7 @@
         <v>6700</v>
       </c>
     </row>
-    <row r="363" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A363" s="9" t="s">
         <v>24</v>
       </c>
@@ -27353,7 +27353,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="364" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A364" s="9" t="s">
         <v>37</v>
       </c>
@@ -27424,7 +27424,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="365" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A365" s="9" t="s">
         <v>24</v>
       </c>
@@ -27495,7 +27495,7 @@
         <v>235.84</v>
       </c>
     </row>
-    <row r="366" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A366" s="9" t="s">
         <v>24</v>
       </c>
@@ -27566,7 +27566,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="367" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A367" s="9" t="s">
         <v>24</v>
       </c>
@@ -27637,7 +27637,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="368" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A368" s="3" t="s">
         <v>79</v>
       </c>
@@ -27708,7 +27708,7 @@
         <v>3316.41</v>
       </c>
     </row>
-    <row r="369" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A369" s="9" t="s">
         <v>68</v>
       </c>
@@ -27779,7 +27779,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="370" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A370" s="9" t="s">
         <v>98</v>
       </c>
@@ -27850,7 +27850,7 @@
         <v>5900</v>
       </c>
     </row>
-    <row r="371" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="9" t="s">
         <v>37</v>
       </c>
@@ -27921,7 +27921,7 @@
         <v>378.06</v>
       </c>
     </row>
-    <row r="372" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A372" s="9" t="s">
         <v>35</v>
       </c>
@@ -27992,7 +27992,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="373" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A373" s="9" t="s">
         <v>98</v>
       </c>
@@ -28063,7 +28063,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="374" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A374" s="9" t="s">
         <v>26</v>
       </c>
@@ -28134,7 +28134,7 @@
         <v>8900</v>
       </c>
     </row>
-    <row r="375" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A375" s="9" t="s">
         <v>50</v>
       </c>
@@ -28205,7 +28205,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="376" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A376" s="9" t="s">
         <v>98</v>
       </c>
@@ -28276,7 +28276,7 @@
         <v>5151.3999999999996</v>
       </c>
     </row>
-    <row r="377" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A377" s="9" t="s">
         <v>31</v>
       </c>
@@ -28347,7 +28347,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="378" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A378" s="9" t="s">
         <v>50</v>
       </c>
@@ -28418,7 +28418,7 @@
         <v>6750</v>
       </c>
     </row>
-    <row r="379" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A379" s="3" t="s">
         <v>43</v>
       </c>
@@ -28489,7 +28489,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="380" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A380" s="3" t="s">
         <v>43</v>
       </c>
@@ -28560,7 +28560,7 @@
         <v>622.52</v>
       </c>
     </row>
-    <row r="381" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A381" s="3" t="s">
         <v>20</v>
       </c>
@@ -28631,7 +28631,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="382" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A382" s="9" t="s">
         <v>50</v>
       </c>
@@ -28702,7 +28702,7 @@
         <v>5282.3760000000002</v>
       </c>
     </row>
-    <row r="383" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A383" s="9" t="s">
         <v>45</v>
       </c>
@@ -28773,7 +28773,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="384" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A384" s="9" t="s">
         <v>33</v>
       </c>
@@ -28844,7 +28844,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="385" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A385" s="9" t="s">
         <v>24</v>
       </c>
@@ -28915,7 +28915,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="386" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A386" s="9" t="s">
         <v>26</v>
       </c>
@@ -28986,7 +28986,7 @@
         <v>11900</v>
       </c>
     </row>
-    <row r="387" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A387" s="3" t="s">
         <v>20</v>
       </c>
@@ -29057,7 +29057,7 @@
         <v>5900</v>
       </c>
     </row>
-    <row r="388" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A388" s="9" t="s">
         <v>31</v>
       </c>
@@ -29128,7 +29128,7 @@
         <v>11950</v>
       </c>
     </row>
-    <row r="389" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A389" s="9" t="s">
         <v>40</v>
       </c>
@@ -29199,7 +29199,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="390" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A390" s="9" t="s">
         <v>24</v>
       </c>
@@ -29270,7 +29270,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="391" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A391" s="9" t="s">
         <v>68</v>
       </c>
@@ -29341,7 +29341,7 @@
         <v>617.505</v>
       </c>
     </row>
-    <row r="392" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A392" s="9" t="s">
         <v>33</v>
       </c>
@@ -29412,7 +29412,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="393" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A393" s="3" t="s">
         <v>79</v>
       </c>
@@ -29483,7 +29483,7 @@
         <v>14990</v>
       </c>
     </row>
-    <row r="394" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A394" s="9" t="s">
         <v>33</v>
       </c>
@@ -29554,7 +29554,7 @@
         <v>6700</v>
       </c>
     </row>
-    <row r="395" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A395" s="9" t="s">
         <v>40</v>
       </c>
@@ -29625,7 +29625,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="396" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A396" s="3" t="s">
         <v>20</v>
       </c>
@@ -29696,7 +29696,7 @@
         <v>5975</v>
       </c>
     </row>
-    <row r="397" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A397" s="9" t="s">
         <v>37</v>
       </c>
@@ -29767,7 +29767,7 @@
         <v>593.6</v>
       </c>
     </row>
-    <row r="398" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A398" s="9" t="s">
         <v>37</v>
       </c>
@@ -29838,7 +29838,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="399" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A399" s="3" t="s">
         <v>24</v>
       </c>
@@ -29909,7 +29909,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="400" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A400" s="3" t="s">
         <v>43</v>
       </c>
@@ -29980,7 +29980,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="401" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" s="9" t="s">
         <v>24</v>
       </c>
@@ -30051,7 +30051,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="402" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A402" s="9" t="s">
         <v>98</v>
       </c>
@@ -30122,7 +30122,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="403" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A403" s="9" t="s">
         <v>52</v>
       </c>
@@ -30193,7 +30193,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="404" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A404" s="9" t="s">
         <v>40</v>
       </c>
@@ -30264,7 +30264,7 @@
         <v>553.04499999999996</v>
       </c>
     </row>
-    <row r="405" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A405" s="9" t="s">
         <v>40</v>
       </c>
@@ -30335,7 +30335,7 @@
         <v>796.84699999999998</v>
       </c>
     </row>
-    <row r="406" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A406" s="9" t="s">
         <v>50</v>
       </c>
@@ -30406,7 +30406,7 @@
         <v>5822.567</v>
       </c>
     </row>
-    <row r="407" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A407" s="9" t="s">
         <v>33</v>
       </c>
@@ -30477,7 +30477,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="408" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A408" s="9" t="s">
         <v>40</v>
       </c>
@@ -30548,7 +30548,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="409" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A409" s="9" t="s">
         <v>40</v>
       </c>
@@ -30619,7 +30619,7 @@
         <v>660.12</v>
       </c>
     </row>
-    <row r="410" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A410" s="9" t="s">
         <v>37</v>
       </c>
@@ -30690,7 +30690,7 @@
         <v>980.2</v>
       </c>
     </row>
-    <row r="411" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A411" s="3" t="s">
         <v>43</v>
       </c>
@@ -30761,7 +30761,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="412" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A412" s="3" t="s">
         <v>43</v>
       </c>
@@ -30832,7 +30832,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="413" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A413" s="3" t="s">
         <v>20</v>
       </c>
@@ -30903,7 +30903,7 @@
         <v>15500</v>
       </c>
     </row>
-    <row r="414" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A414" s="3" t="s">
         <v>43</v>
       </c>
@@ -30974,7 +30974,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="415" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A415" s="3" t="s">
         <v>43</v>
       </c>
@@ -31045,7 +31045,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="416" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A416" s="3" t="s">
         <v>43</v>
       </c>
@@ -31116,7 +31116,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="417" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A417" s="9" t="s">
         <v>40</v>
       </c>
@@ -31187,7 +31187,7 @@
         <v>440.12299999999999</v>
       </c>
     </row>
-    <row r="418" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A418" s="9" t="s">
         <v>33</v>
       </c>
@@ -31258,7 +31258,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="419" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A419" s="9" t="s">
         <v>50</v>
       </c>
@@ -31329,7 +31329,7 @@
         <v>7505.6859999999997</v>
       </c>
     </row>
-    <row r="420" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A420" s="3" t="s">
         <v>43</v>
       </c>
@@ -31400,7 +31400,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="421" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A421" s="9" t="s">
         <v>24</v>
       </c>
@@ -31471,7 +31471,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="422" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A422" s="9" t="s">
         <v>52</v>
       </c>
@@ -31542,7 +31542,7 @@
         <v>3465</v>
       </c>
     </row>
-    <row r="423" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A423" s="9" t="s">
         <v>98</v>
       </c>
@@ -31613,7 +31613,7 @@
         <v>3840</v>
       </c>
     </row>
-    <row r="424" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A424" s="9" t="s">
         <v>33</v>
       </c>
@@ -31684,7 +31684,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="425" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A425" s="9" t="s">
         <v>45</v>
       </c>
@@ -31755,7 +31755,7 @@
         <v>1807.838</v>
       </c>
     </row>
-    <row r="426" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A426" s="3" t="s">
         <v>43</v>
       </c>
@@ -31826,7 +31826,7 @@
         <v>368.94</v>
       </c>
     </row>
-    <row r="427" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A427" s="3" t="s">
         <v>43</v>
       </c>
@@ -31897,7 +31897,7 @@
         <v>1096.7149999999999</v>
       </c>
     </row>
-    <row r="428" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A428" s="3" t="s">
         <v>43</v>
       </c>
@@ -31968,7 +31968,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="429" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A429" s="9" t="s">
         <v>31</v>
       </c>
@@ -32039,7 +32039,7 @@
         <v>11900</v>
       </c>
     </row>
-    <row r="430" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A430" s="3" t="s">
         <v>43</v>
       </c>
@@ -32110,7 +32110,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="431" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A431" s="9" t="s">
         <v>31</v>
       </c>
@@ -32181,7 +32181,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="432" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A432" s="3" t="s">
         <v>43</v>
       </c>
@@ -32252,7 +32252,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="433" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A433" s="9" t="s">
         <v>31</v>
       </c>
@@ -32323,7 +32323,7 @@
         <v>9936</v>
       </c>
     </row>
-    <row r="434" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A434" s="3" t="s">
         <v>43</v>
       </c>
@@ -32394,7 +32394,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="435" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A435" s="9" t="s">
         <v>45</v>
       </c>
@@ -32465,7 +32465,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="436" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A436" s="9" t="s">
         <v>52</v>
       </c>
@@ -32536,7 +32536,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="437" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A437" s="3" t="s">
         <v>43</v>
       </c>
@@ -32607,7 +32607,7 @@
         <v>572.6</v>
       </c>
     </row>
-    <row r="438" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A438" s="9" t="s">
         <v>33</v>
       </c>
@@ -32678,7 +32678,7 @@
         <v>5254.799</v>
       </c>
     </row>
-    <row r="439" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A439" s="9" t="s">
         <v>40</v>
       </c>
@@ -32749,7 +32749,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="440" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A440" s="9" t="s">
         <v>98</v>
       </c>
@@ -32820,7 +32820,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="441" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A441" s="9" t="s">
         <v>33</v>
       </c>
@@ -32891,7 +32891,7 @@
         <v>3880</v>
       </c>
     </row>
-    <row r="442" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A442" s="3" t="s">
         <v>43</v>
       </c>
@@ -32962,7 +32962,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="443" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A443" s="9" t="s">
         <v>40</v>
       </c>
@@ -33033,7 +33033,7 @@
         <v>683.697</v>
       </c>
     </row>
-    <row r="444" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A444" s="9" t="s">
         <v>31</v>
       </c>
@@ -33104,7 +33104,7 @@
         <v>8280</v>
       </c>
     </row>
-    <row r="445" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A445" s="9" t="s">
         <v>40</v>
       </c>
@@ -33175,7 +33175,7 @@
         <v>406.59899999999999</v>
       </c>
     </row>
-    <row r="446" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A446" s="9" t="s">
         <v>33</v>
       </c>
@@ -33246,7 +33246,7 @@
         <v>9950</v>
       </c>
     </row>
-    <row r="447" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A447" s="9" t="s">
         <v>168</v>
       </c>
@@ -33317,7 +33317,7 @@
         <v>903.45399999999995</v>
       </c>
     </row>
-    <row r="448" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A448" s="3" t="s">
         <v>43</v>
       </c>
@@ -33388,7 +33388,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="449" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A449" s="3" t="s">
         <v>43</v>
       </c>
@@ -33459,7 +33459,7 @@
         <v>606.52</v>
       </c>
     </row>
-    <row r="450" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A450" s="9" t="s">
         <v>37</v>
       </c>
@@ -33530,7 +33530,7 @@
         <v>569.5</v>
       </c>
     </row>
-    <row r="451" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A451" s="9" t="s">
         <v>35</v>
       </c>
@@ -33601,7 +33601,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="452" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A452" s="9" t="s">
         <v>45</v>
       </c>
@@ -33672,7 +33672,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="453" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A453" s="9" t="s">
         <v>24</v>
       </c>
@@ -33743,7 +33743,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="454" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A454" s="9" t="s">
         <v>37</v>
       </c>
@@ -33814,7 +33814,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="455" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A455" s="9" t="s">
         <v>37</v>
       </c>
@@ -33885,7 +33885,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="456" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A456" s="9" t="s">
         <v>33</v>
       </c>
@@ -33956,7 +33956,7 @@
         <v>3212.5360000000001</v>
       </c>
     </row>
-    <row r="457" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A457" s="9" t="s">
         <v>37</v>
       </c>
@@ -34027,7 +34027,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="458" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A458" s="3" t="s">
         <v>79</v>
       </c>
@@ -34098,7 +34098,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="459" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A459" s="3" t="s">
         <v>43</v>
       </c>
@@ -34169,7 +34169,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="460" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A460" s="9" t="s">
         <v>33</v>
       </c>
@@ -34240,7 +34240,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="461" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A461" s="9" t="s">
         <v>50</v>
       </c>
@@ -34311,7 +34311,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="462" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A462" s="3" t="s">
         <v>43</v>
       </c>
@@ -34382,7 +34382,7 @@
         <v>1530.001</v>
       </c>
     </row>
-    <row r="463" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A463" s="9" t="s">
         <v>37</v>
       </c>
@@ -34453,7 +34453,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="464" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A464" s="3" t="s">
         <v>43</v>
       </c>
@@ -34524,7 +34524,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="465" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A465" s="9" t="s">
         <v>33</v>
       </c>
@@ -34595,7 +34595,7 @@
         <v>7561.223</v>
       </c>
     </row>
-    <row r="466" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A466" s="9" t="s">
         <v>33</v>
       </c>
@@ -34666,7 +34666,7 @@
         <v>8190</v>
       </c>
     </row>
-    <row r="467" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A467" s="9" t="s">
         <v>52</v>
       </c>
@@ -34737,7 +34737,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="468" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A468" s="9" t="s">
         <v>35</v>
       </c>
@@ -34808,7 +34808,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="469" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A469" s="9" t="s">
         <v>24</v>
       </c>
@@ -34879,7 +34879,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="470" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A470" s="9" t="s">
         <v>33</v>
       </c>
@@ -34950,7 +34950,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="471" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A471" s="9" t="s">
         <v>33</v>
       </c>
@@ -35021,7 +35021,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="472" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A472" s="3" t="s">
         <v>43</v>
       </c>
@@ -35092,7 +35092,7 @@
         <v>701.7</v>
       </c>
     </row>
-    <row r="473" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A473" s="9" t="s">
         <v>26</v>
       </c>
@@ -35163,7 +35163,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="474" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A474" s="3" t="s">
         <v>43</v>
       </c>
@@ -35234,7 +35234,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="475" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A475" s="9" t="s">
         <v>40</v>
       </c>
@@ -35305,7 +35305,7 @@
         <v>998.09400000000005</v>
       </c>
     </row>
-    <row r="476" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A476" s="9" t="s">
         <v>40</v>
       </c>
@@ -35376,7 +35376,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="477" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A477" s="9" t="s">
         <v>24</v>
       </c>
@@ -35447,7 +35447,7 @@
         <v>1077.5</v>
       </c>
     </row>
-    <row r="478" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A478" s="3" t="s">
         <v>43</v>
       </c>
@@ -35518,7 +35518,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="479" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A479" s="9" t="s">
         <v>98</v>
       </c>
@@ -35589,7 +35589,7 @@
         <v>4480</v>
       </c>
     </row>
-    <row r="480" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A480" s="9" t="s">
         <v>50</v>
       </c>
@@ -35660,7 +35660,7 @@
         <v>3148</v>
       </c>
     </row>
-    <row r="481" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A481" s="9" t="s">
         <v>168</v>
       </c>
@@ -35731,7 +35731,7 @@
         <v>3740</v>
       </c>
     </row>
-    <row r="482" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A482" s="9" t="s">
         <v>24</v>
       </c>
@@ -35802,7 +35802,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="483" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A483" s="9" t="s">
         <v>40</v>
       </c>
@@ -35873,7 +35873,7 @@
         <v>699.3</v>
       </c>
     </row>
-    <row r="484" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A484" s="9" t="s">
         <v>45</v>
       </c>
@@ -35944,7 +35944,7 @@
         <v>2995.0439999999999</v>
       </c>
     </row>
-    <row r="485" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A485" s="9" t="s">
         <v>40</v>
       </c>
@@ -36015,7 +36015,7 @@
         <v>629.721</v>
       </c>
     </row>
-    <row r="486" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A486" s="9" t="s">
         <v>68</v>
       </c>
@@ -36086,7 +36086,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="487" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A487" s="9" t="s">
         <v>35</v>
       </c>
@@ -36157,7 +36157,7 @@
         <v>3627.1729999999998</v>
       </c>
     </row>
-    <row r="488" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A488" s="9" t="s">
         <v>33</v>
       </c>
@@ -36228,7 +36228,7 @@
         <v>11900</v>
       </c>
     </row>
-    <row r="489" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A489" s="3" t="s">
         <v>43</v>
       </c>
@@ -36299,7 +36299,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="490" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A490" s="9" t="s">
         <v>33</v>
       </c>
@@ -36370,7 +36370,7 @@
         <v>7990</v>
       </c>
     </row>
-    <row r="491" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A491" s="9" t="s">
         <v>24</v>
       </c>
@@ -36441,7 +36441,7 @@
         <v>1106.0999999999999</v>
       </c>
     </row>
-    <row r="492" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A492" s="9" t="s">
         <v>45</v>
       </c>
@@ -36512,7 +36512,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="493" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A493" s="9" t="s">
         <v>45</v>
       </c>
@@ -36583,7 +36583,7 @@
         <v>1822.925</v>
       </c>
     </row>
-    <row r="494" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A494" s="3" t="s">
         <v>20</v>
       </c>
@@ -36654,7 +36654,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="495" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A495" s="9" t="s">
         <v>31</v>
       </c>
@@ -36725,7 +36725,7 @@
         <v>12768</v>
       </c>
     </row>
-    <row r="496" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A496" s="9" t="s">
         <v>24</v>
       </c>
@@ -36796,7 +36796,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="497" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A497" s="9" t="s">
         <v>45</v>
       </c>
@@ -36867,7 +36867,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="498" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A498" s="9" t="s">
         <v>33</v>
       </c>
@@ -36938,7 +36938,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="499" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A499" s="9" t="s">
         <v>24</v>
       </c>
@@ -37009,7 +37009,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="500" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A500" s="9" t="s">
         <v>24</v>
       </c>
@@ -37080,7 +37080,7 @@
         <v>613.05999999999995</v>
       </c>
     </row>
-    <row r="501" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A501" s="9" t="s">
         <v>40</v>
       </c>
@@ -37151,7 +37151,7 @@
         <v>737.41800000000001</v>
       </c>
     </row>
-    <row r="502" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A502" s="9" t="s">
         <v>26</v>
       </c>
@@ -37222,7 +37222,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="503" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A503" s="9" t="s">
         <v>24</v>
       </c>
@@ -37293,7 +37293,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="504" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A504" s="9" t="s">
         <v>45</v>
       </c>
@@ -37364,7 +37364,7 @@
         <v>5495</v>
       </c>
     </row>
-    <row r="505" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A505" s="9" t="s">
         <v>33</v>
       </c>
@@ -37435,7 +37435,7 @@
         <v>7150</v>
       </c>
     </row>
-    <row r="506" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A506" s="9" t="s">
         <v>24</v>
       </c>
@@ -37506,7 +37506,7 @@
         <v>5790</v>
       </c>
     </row>
-    <row r="507" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A507" s="3" t="s">
         <v>35</v>
       </c>
@@ -37577,7 +37577,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="508" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A508" s="9" t="s">
         <v>40</v>
       </c>
@@ -37648,7 +37648,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="509" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A509" s="3" t="s">
         <v>43</v>
       </c>
@@ -37719,7 +37719,7 @@
         <v>1747.5029999999999</v>
       </c>
     </row>
-    <row r="510" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A510" s="9" t="s">
         <v>40</v>
       </c>
@@ -37790,7 +37790,7 @@
         <v>451.77699999999999</v>
       </c>
     </row>
-    <row r="511" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A511" s="9" t="s">
         <v>33</v>
       </c>
@@ -37861,7 +37861,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="512" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A512" s="9" t="s">
         <v>98</v>
       </c>
@@ -37932,7 +37932,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="513" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A513" s="3" t="s">
         <v>79</v>
       </c>
@@ -38003,7 +38003,7 @@
         <v>2975</v>
       </c>
     </row>
-    <row r="514" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A514" s="3" t="s">
         <v>43</v>
       </c>
@@ -38074,7 +38074,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="515" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A515" s="9" t="s">
         <v>45</v>
       </c>
@@ -38145,7 +38145,7 @@
         <v>3140</v>
       </c>
     </row>
-    <row r="516" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A516" s="3" t="s">
         <v>43</v>
       </c>
@@ -38216,7 +38216,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="517" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A517" s="9" t="s">
         <v>50</v>
       </c>
@@ -38287,7 +38287,7 @@
         <v>3786.8</v>
       </c>
     </row>
-    <row r="518" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A518" s="9" t="s">
         <v>168</v>
       </c>
@@ -38358,7 +38358,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="519" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A519" s="9" t="s">
         <v>168</v>
       </c>
@@ -38429,7 +38429,7 @@
         <v>284.42599999999999</v>
       </c>
     </row>
-    <row r="520" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A520" s="9" t="s">
         <v>45</v>
       </c>
@@ -38500,7 +38500,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="521" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A521" s="3" t="s">
         <v>79</v>
       </c>
@@ -38571,7 +38571,7 @@
         <v>12200</v>
       </c>
     </row>
-    <row r="522" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A522" s="9" t="s">
         <v>31</v>
       </c>
@@ -38642,7 +38642,7 @@
         <v>14175</v>
       </c>
     </row>
-    <row r="523" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A523" s="9" t="s">
         <v>35</v>
       </c>
@@ -38713,7 +38713,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="524" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A524" s="3" t="s">
         <v>43</v>
       </c>
@@ -38784,7 +38784,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="525" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A525" s="9" t="s">
         <v>31</v>
       </c>
@@ -38855,7 +38855,7 @@
         <v>16900</v>
       </c>
     </row>
-    <row r="526" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A526" s="9" t="s">
         <v>33</v>
       </c>
@@ -38926,7 +38926,7 @@
         <v>5310</v>
       </c>
     </row>
-    <row r="527" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A527" s="9" t="s">
         <v>98</v>
       </c>
@@ -38997,7 +38997,7 @@
         <v>5452.85</v>
       </c>
     </row>
-    <row r="528" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A528" s="3" t="s">
         <v>20</v>
       </c>
@@ -39068,7 +39068,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="529" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A529" s="9" t="s">
         <v>33</v>
       </c>
@@ -39139,7 +39139,7 @@
         <v>8524</v>
       </c>
     </row>
-    <row r="530" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A530" s="9" t="s">
         <v>52</v>
       </c>
@@ -39210,7 +39210,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="531" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A531" s="9" t="s">
         <v>45</v>
       </c>
@@ -39281,7 +39281,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="532" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A532" s="3" t="s">
         <v>43</v>
       </c>
@@ -39352,7 +39352,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="533" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A533" s="9" t="s">
         <v>52</v>
       </c>
@@ -39423,7 +39423,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="534" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A534" s="9" t="s">
         <v>24</v>
       </c>
@@ -39494,7 +39494,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="535" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A535" s="9" t="s">
         <v>98</v>
       </c>
@@ -39565,7 +39565,7 @@
         <v>5900</v>
       </c>
     </row>
-    <row r="536" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A536" s="9" t="s">
         <v>37</v>
       </c>
@@ -39636,7 +39636,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="537" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A537" s="9" t="s">
         <v>24</v>
       </c>
@@ -39707,7 +39707,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="538" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A538" s="3" t="s">
         <v>43</v>
       </c>
@@ -39778,7 +39778,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="539" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A539" s="9" t="s">
         <v>52</v>
       </c>
@@ -39849,7 +39849,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="540" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A540" s="9" t="s">
         <v>40</v>
       </c>
@@ -39920,7 +39920,7 @@
         <v>993.31</v>
       </c>
     </row>
-    <row r="541" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A541" s="9" t="s">
         <v>24</v>
       </c>
@@ -39991,7 +39991,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="542" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A542" s="3" t="s">
         <v>20</v>
       </c>
@@ -40062,7 +40062,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="543" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A543" s="9" t="s">
         <v>24</v>
       </c>
@@ -40133,7 +40133,7 @@
         <v>757.84</v>
       </c>
     </row>
-    <row r="544" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A544" s="9" t="s">
         <v>37</v>
       </c>
@@ -40204,7 +40204,7 @@
         <v>422.82600000000002</v>
       </c>
     </row>
-    <row r="545" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A545" s="9" t="s">
         <v>40</v>
       </c>
@@ -40275,7 +40275,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="546" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A546" s="3" t="s">
         <v>35</v>
       </c>
@@ -40346,7 +40346,7 @@
         <v>3286.9520000000002</v>
       </c>
     </row>
-    <row r="547" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A547" s="9" t="s">
         <v>26</v>
       </c>
@@ -40417,7 +40417,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="548" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A548" s="9" t="s">
         <v>52</v>
       </c>
@@ -40488,7 +40488,7 @@
         <v>2802.5</v>
       </c>
     </row>
-    <row r="549" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A549" s="9" t="s">
         <v>24</v>
       </c>
@@ -40559,7 +40559,7 @@
         <v>1090.9000000000001</v>
       </c>
     </row>
-    <row r="550" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A550" s="9" t="s">
         <v>24</v>
       </c>
@@ -40630,7 +40630,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="551" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A551" s="9" t="s">
         <v>31</v>
       </c>
@@ -40701,7 +40701,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="552" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A552" s="3" t="s">
         <v>43</v>
       </c>
@@ -40772,7 +40772,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="553" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A553" s="9" t="s">
         <v>33</v>
       </c>
@@ -40843,7 +40843,7 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="554" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A554" s="9" t="s">
         <v>33</v>
       </c>
@@ -40914,7 +40914,7 @@
         <v>9040.5</v>
       </c>
     </row>
-    <row r="555" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A555" s="9" t="s">
         <v>26</v>
       </c>
@@ -40985,7 +40985,7 @@
         <v>22990</v>
       </c>
     </row>
-    <row r="556" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A556" s="9" t="s">
         <v>26</v>
       </c>
@@ -41056,7 +41056,7 @@
         <v>13250</v>
       </c>
     </row>
-    <row r="557" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A557" s="9" t="s">
         <v>68</v>
       </c>
@@ -41127,7 +41127,7 @@
         <v>543.20000000000005</v>
       </c>
     </row>
-    <row r="558" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A558" s="9" t="s">
         <v>45</v>
       </c>
@@ -41198,7 +41198,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="559" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A559" s="9" t="s">
         <v>33</v>
       </c>
@@ -41269,7 +41269,7 @@
         <v>8150</v>
       </c>
     </row>
-    <row r="560" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A560" s="9" t="s">
         <v>40</v>
       </c>
@@ -41340,7 +41340,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="561" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A561" s="9" t="s">
         <v>31</v>
       </c>
@@ -41411,7 +41411,7 @@
         <v>11750</v>
       </c>
     </row>
-    <row r="562" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A562" s="9" t="s">
         <v>24</v>
       </c>
@@ -41482,7 +41482,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="563" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A563" s="9" t="s">
         <v>40</v>
       </c>
@@ -41553,7 +41553,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="564" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A564" s="9" t="s">
         <v>52</v>
       </c>
@@ -41624,7 +41624,7 @@
         <v>2349.569</v>
       </c>
     </row>
-    <row r="565" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A565" s="9" t="s">
         <v>45</v>
       </c>
@@ -41695,7 +41695,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="566" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A566" s="3" t="s">
         <v>79</v>
       </c>
@@ -41766,7 +41766,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="567" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A567" s="9" t="s">
         <v>24</v>
       </c>
@@ -41837,7 +41837,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="568" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A568" s="9" t="s">
         <v>31</v>
       </c>
@@ -41908,7 +41908,7 @@
         <v>17500</v>
       </c>
     </row>
-    <row r="569" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A569" s="9" t="s">
         <v>31</v>
       </c>
@@ -41979,7 +41979,7 @@
         <v>13300</v>
       </c>
     </row>
-    <row r="570" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A570" s="3" t="s">
         <v>79</v>
       </c>
@@ -42050,7 +42050,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="571" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A571" s="9" t="s">
         <v>45</v>
       </c>
@@ -42121,7 +42121,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="572" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A572" s="9" t="s">
         <v>35</v>
       </c>
@@ -42192,7 +42192,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="573" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A573" s="9" t="s">
         <v>26</v>
       </c>
@@ -42263,7 +42263,7 @@
         <v>11700</v>
       </c>
     </row>
-    <row r="574" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A574" s="3" t="s">
         <v>43</v>
       </c>
@@ -42334,7 +42334,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="575" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A575" s="9" t="s">
         <v>168</v>
       </c>
@@ -42405,7 +42405,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="576" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A576" s="9" t="s">
         <v>33</v>
       </c>
@@ -42476,7 +42476,7 @@
         <v>12300</v>
       </c>
     </row>
-    <row r="577" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A577" s="9" t="s">
         <v>40</v>
       </c>
@@ -42547,7 +42547,7 @@
         <v>906.68</v>
       </c>
     </row>
-    <row r="578" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A578" s="9" t="s">
         <v>40</v>
       </c>
@@ -42618,7 +42618,7 @@
         <v>847.34699999999998</v>
       </c>
     </row>
-    <row r="579" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A579" s="3" t="s">
         <v>79</v>
       </c>
@@ -42689,7 +42689,7 @@
         <v>7099.99</v>
       </c>
     </row>
-    <row r="580" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A580" s="3" t="s">
         <v>43</v>
       </c>
@@ -42760,7 +42760,7 @@
         <v>1705.4090000000001</v>
       </c>
     </row>
-    <row r="581" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A581" s="3" t="s">
         <v>20</v>
       </c>
@@ -42831,7 +42831,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="582" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A582" s="3" t="s">
         <v>43</v>
       </c>
@@ -42902,7 +42902,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="583" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A583" s="9" t="s">
         <v>33</v>
       </c>
@@ -42973,7 +42973,7 @@
         <v>11312.977999999999</v>
       </c>
     </row>
-    <row r="584" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A584" s="9" t="s">
         <v>50</v>
       </c>
@@ -43044,7 +43044,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="585" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A585" s="3" t="s">
         <v>43</v>
       </c>
@@ -43115,7 +43115,7 @@
         <v>431.2</v>
       </c>
     </row>
-    <row r="586" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A586" s="9" t="s">
         <v>31</v>
       </c>
@@ -43186,7 +43186,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="587" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A587" s="9" t="s">
         <v>24</v>
       </c>
@@ -43257,7 +43257,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="588" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A588" s="9" t="s">
         <v>50</v>
       </c>
@@ -43328,7 +43328,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="589" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A589" s="9" t="s">
         <v>52</v>
       </c>
@@ -43399,7 +43399,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="590" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A590" s="9" t="s">
         <v>45</v>
       </c>
@@ -43470,7 +43470,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="591" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A591" s="9" t="s">
         <v>33</v>
       </c>
@@ -43541,7 +43541,7 @@
         <v>4472</v>
       </c>
     </row>
-    <row r="592" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A592" s="9" t="s">
         <v>24</v>
       </c>
@@ -43612,7 +43612,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="593" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A593" s="9" t="s">
         <v>45</v>
       </c>
@@ -43683,7 +43683,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="594" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A594" s="9" t="s">
         <v>37</v>
       </c>
@@ -43754,7 +43754,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="595" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A595" s="9" t="s">
         <v>33</v>
       </c>
@@ -43825,7 +43825,7 @@
         <v>4654.9459999999999</v>
       </c>
     </row>
-    <row r="596" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A596" s="9" t="s">
         <v>33</v>
       </c>
@@ -43896,7 +43896,7 @@
         <v>12900</v>
       </c>
     </row>
-    <row r="597" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A597" s="3" t="s">
         <v>35</v>
       </c>
@@ -43967,7 +43967,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="598" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A598" s="9" t="s">
         <v>45</v>
       </c>
@@ -44038,7 +44038,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="599" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A599" s="3" t="s">
         <v>79</v>
       </c>
@@ -44109,7 +44109,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="600" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A600" s="9" t="s">
         <v>40</v>
       </c>
@@ -44180,7 +44180,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="601" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A601" s="3" t="s">
         <v>79</v>
       </c>
@@ -44251,7 +44251,7 @@
         <v>3850</v>
       </c>
     </row>
-    <row r="602" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A602" s="9" t="s">
         <v>40</v>
       </c>
@@ -44322,7 +44322,7 @@
         <v>796.84699999999998</v>
       </c>
     </row>
-    <row r="603" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A603" s="3" t="s">
         <v>43</v>
       </c>
@@ -44393,7 +44393,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="604" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A604" s="9" t="s">
         <v>33</v>
       </c>
@@ -44464,7 +44464,7 @@
         <v>9990</v>
       </c>
     </row>
-    <row r="605" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A605" s="9" t="s">
         <v>33</v>
       </c>
@@ -44535,7 +44535,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="606" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A606" s="9" t="s">
         <v>40</v>
       </c>
@@ -44606,7 +44606,7 @@
         <v>404.34800000000001</v>
       </c>
     </row>
-    <row r="607" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A607" s="9" t="s">
         <v>24</v>
       </c>
@@ -44677,7 +44677,7 @@
         <v>2156.9450000000002</v>
       </c>
     </row>
-    <row r="608" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A608" s="3" t="s">
         <v>43</v>
       </c>
@@ -44748,7 +44748,7 @@
         <v>801.84</v>
       </c>
     </row>
-    <row r="609" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A609" s="9" t="s">
         <v>35</v>
       </c>
@@ -44819,7 +44819,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="610" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A610" s="9" t="s">
         <v>45</v>
       </c>
@@ -44890,7 +44890,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="611" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A611" s="9" t="s">
         <v>40</v>
       </c>
@@ -44961,7 +44961,7 @@
         <v>886.68</v>
       </c>
     </row>
-    <row r="612" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A612" s="9" t="s">
         <v>33</v>
       </c>
@@ -45032,7 +45032,7 @@
         <v>4449</v>
       </c>
     </row>
-    <row r="613" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A613" s="3" t="s">
         <v>35</v>
       </c>
@@ -45103,7 +45103,7 @@
         <v>3882.84</v>
       </c>
     </row>
-    <row r="614" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A614" s="9" t="s">
         <v>37</v>
       </c>
@@ -45174,7 +45174,7 @@
         <v>658.65200000000004</v>
       </c>
     </row>
-    <row r="615" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A615" s="9" t="s">
         <v>31</v>
       </c>
@@ -45245,7 +45245,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="616" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A616" s="9" t="s">
         <v>50</v>
       </c>
@@ -45316,7 +45316,7 @@
         <v>7019.5870000000004</v>
       </c>
     </row>
-    <row r="617" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A617" s="9" t="s">
         <v>33</v>
       </c>
@@ -45387,7 +45387,7 @@
         <v>8585</v>
       </c>
     </row>
-    <row r="618" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A618" s="9" t="s">
         <v>31</v>
       </c>
@@ -45458,7 +45458,7 @@
         <v>10300</v>
       </c>
     </row>
-    <row r="619" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A619" s="9" t="s">
         <v>50</v>
       </c>
@@ -45529,7 +45529,7 @@
         <v>3620</v>
       </c>
     </row>
-    <row r="620" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A620" s="9" t="s">
         <v>33</v>
       </c>
@@ -45600,7 +45600,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="621" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A621" s="9" t="s">
         <v>40</v>
       </c>
@@ -45671,7 +45671,7 @@
         <v>550.77700000000004</v>
       </c>
     </row>
-    <row r="622" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A622" s="9" t="s">
         <v>24</v>
       </c>
@@ -45742,7 +45742,7 @@
         <v>1007.5</v>
       </c>
     </row>
-    <row r="623" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A623" s="16" t="s">
         <v>33</v>
       </c>
@@ -45813,7 +45813,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="624" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A624" s="3" t="s">
         <v>79</v>
       </c>
@@ -45884,7 +45884,7 @@
         <v>13365</v>
       </c>
     </row>
-    <row r="625" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A625" s="9" t="s">
         <v>24</v>
       </c>
@@ -45955,7 +45955,7 @@
         <v>1057.5</v>
       </c>
     </row>
-    <row r="626" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A626" s="3" t="s">
         <v>43</v>
       </c>
@@ -46026,7 +46026,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="627" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A627" s="3" t="s">
         <v>20</v>
       </c>
@@ -46097,7 +46097,7 @@
         <v>4690</v>
       </c>
     </row>
-    <row r="628" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A628" s="9" t="s">
         <v>24</v>
       </c>
@@ -46168,7 +46168,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="629" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A629" s="3" t="s">
         <v>79</v>
       </c>
@@ -46239,7 +46239,7 @@
         <v>3316</v>
       </c>
     </row>
-    <row r="630" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A630" s="9" t="s">
         <v>33</v>
       </c>
@@ -46310,7 +46310,7 @@
         <v>7790</v>
       </c>
     </row>
-    <row r="631" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A631" s="9" t="s">
         <v>40</v>
       </c>
@@ -46381,7 +46381,7 @@
         <v>876.83100000000002</v>
       </c>
     </row>
-    <row r="632" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A632" s="9" t="s">
         <v>33</v>
       </c>
@@ -46452,7 +46452,7 @@
         <v>6980</v>
       </c>
     </row>
-    <row r="633" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A633" s="9" t="s">
         <v>33</v>
       </c>
@@ -46523,7 +46523,7 @@
         <v>4990</v>
       </c>
     </row>
-    <row r="634" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A634" s="9" t="s">
         <v>31</v>
       </c>
@@ -46594,7 +46594,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="635" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A635" s="9" t="s">
         <v>168</v>
       </c>
@@ -46665,7 +46665,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="636" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A636" s="9" t="s">
         <v>40</v>
       </c>
@@ -46736,7 +46736,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="637" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A637" s="9" t="s">
         <v>24</v>
       </c>
@@ -46807,7 +46807,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="638" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A638" s="9" t="s">
         <v>45</v>
       </c>
@@ -46878,7 +46878,7 @@
         <v>3980</v>
       </c>
     </row>
-    <row r="639" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A639" s="9" t="s">
         <v>24</v>
       </c>
@@ -46949,7 +46949,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="640" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A640" s="9" t="s">
         <v>37</v>
       </c>
@@ -47020,7 +47020,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="641" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A641" s="9" t="s">
         <v>31</v>
       </c>
@@ -47091,7 +47091,7 @@
         <v>17500</v>
       </c>
     </row>
-    <row r="642" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A642" s="3" t="s">
         <v>43</v>
       </c>
@@ -47162,7 +47162,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="643" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A643" s="9" t="s">
         <v>37</v>
       </c>
@@ -47233,7 +47233,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="644" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A644" s="3" t="s">
         <v>43</v>
       </c>
@@ -47304,7 +47304,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="645" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A645" s="9" t="s">
         <v>45</v>
       </c>
@@ -47375,7 +47375,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="646" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A646" s="9" t="s">
         <v>98</v>
       </c>
@@ -47446,7 +47446,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="647" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A647" s="9" t="s">
         <v>33</v>
       </c>
@@ -47517,7 +47517,7 @@
         <v>9100</v>
       </c>
     </row>
-    <row r="648" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A648" s="9" t="s">
         <v>37</v>
       </c>
@@ -47588,7 +47588,7 @@
         <v>913.57500000000005</v>
       </c>
     </row>
-    <row r="649" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A649" s="9" t="s">
         <v>98</v>
       </c>
@@ -47659,7 +47659,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="650" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A650" s="9" t="s">
         <v>98</v>
       </c>
@@ -47730,7 +47730,7 @@
         <v>7517</v>
       </c>
     </row>
-    <row r="651" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A651" s="9" t="s">
         <v>33</v>
       </c>
@@ -47801,7 +47801,7 @@
         <v>9646.8670000000002</v>
       </c>
     </row>
-    <row r="652" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A652" s="3" t="s">
         <v>43</v>
       </c>
@@ -47872,7 +47872,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="653" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A653" s="3" t="s">
         <v>43</v>
       </c>
@@ -47943,7 +47943,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="654" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A654" s="9" t="s">
         <v>33</v>
       </c>
@@ -48014,7 +48014,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="655" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A655" s="9" t="s">
         <v>50</v>
       </c>
@@ -48085,7 +48085,7 @@
         <v>5791.8</v>
       </c>
     </row>
-    <row r="656" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A656" s="9" t="s">
         <v>45</v>
       </c>
@@ -48156,7 +48156,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="657" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A657" s="3" t="s">
         <v>20</v>
       </c>
@@ -48227,7 +48227,7 @@
         <v>1094.44</v>
       </c>
     </row>
-    <row r="658" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A658" s="3" t="s">
         <v>43</v>
       </c>
@@ -48298,7 +48298,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="659" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A659" s="9" t="s">
         <v>52</v>
       </c>
@@ -48369,1031 +48369,1032 @@
         <v>3090</v>
       </c>
     </row>
-    <row r="660" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W660" s="17"/>
     </row>
-    <row r="661" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="T661" s="20"/>
       <c r="W661" s="17"/>
     </row>
-    <row r="662" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W662" s="17"/>
     </row>
-    <row r="663" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W663" s="17"/>
     </row>
-    <row r="664" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W664" s="17"/>
     </row>
-    <row r="665" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W665" s="17"/>
     </row>
-    <row r="666" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W666" s="17"/>
     </row>
-    <row r="667" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W667" s="17"/>
     </row>
-    <row r="668" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W668" s="17"/>
     </row>
-    <row r="669" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W669" s="17"/>
     </row>
-    <row r="670" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W670" s="17"/>
     </row>
-    <row r="671" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W671" s="17"/>
     </row>
-    <row r="672" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W672" s="17"/>
     </row>
-    <row r="673" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W673" s="17"/>
     </row>
-    <row r="674" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W674" s="17"/>
     </row>
-    <row r="675" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W675" s="17"/>
     </row>
-    <row r="676" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W676" s="17"/>
     </row>
-    <row r="677" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W677" s="17"/>
     </row>
-    <row r="678" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W678" s="17"/>
     </row>
-    <row r="679" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W679" s="17"/>
     </row>
-    <row r="680" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W680" s="17"/>
     </row>
-    <row r="681" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W681" s="17"/>
     </row>
-    <row r="682" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W682" s="17"/>
     </row>
-    <row r="683" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W683" s="17"/>
     </row>
-    <row r="684" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W684" s="17"/>
     </row>
-    <row r="685" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W685" s="17"/>
     </row>
-    <row r="686" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W686" s="17"/>
     </row>
-    <row r="687" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W687" s="17"/>
     </row>
-    <row r="688" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W688" s="17"/>
     </row>
-    <row r="689" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W689" s="17"/>
     </row>
-    <row r="690" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W690" s="17"/>
     </row>
-    <row r="691" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W691" s="17"/>
     </row>
-    <row r="692" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W692" s="17"/>
     </row>
-    <row r="693" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W693" s="17"/>
     </row>
-    <row r="694" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W694" s="17"/>
     </row>
-    <row r="695" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W695" s="17"/>
     </row>
-    <row r="696" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W696" s="17"/>
     </row>
-    <row r="697" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W697" s="17"/>
     </row>
-    <row r="698" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W698" s="17"/>
     </row>
-    <row r="699" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W699" s="17"/>
     </row>
-    <row r="700" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W700" s="17"/>
     </row>
-    <row r="701" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W701" s="17"/>
     </row>
-    <row r="702" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W702" s="17"/>
     </row>
-    <row r="703" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W703" s="17"/>
     </row>
-    <row r="704" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W704" s="17"/>
     </row>
-    <row r="705" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W705" s="17"/>
     </row>
-    <row r="706" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W706" s="17"/>
     </row>
-    <row r="707" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W707" s="17"/>
     </row>
-    <row r="708" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W708" s="17"/>
     </row>
-    <row r="709" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W709" s="17"/>
     </row>
-    <row r="710" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W710" s="17"/>
     </row>
-    <row r="711" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W711" s="17"/>
     </row>
-    <row r="712" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W712" s="17"/>
     </row>
-    <row r="713" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W713" s="17"/>
     </row>
-    <row r="714" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W714" s="17"/>
     </row>
-    <row r="715" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W715" s="17"/>
     </row>
-    <row r="716" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W716" s="17"/>
     </row>
-    <row r="717" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W717" s="17"/>
     </row>
-    <row r="718" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W718" s="17"/>
     </row>
-    <row r="719" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W719" s="17"/>
     </row>
-    <row r="720" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W720" s="17"/>
     </row>
-    <row r="721" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W721" s="17"/>
     </row>
-    <row r="722" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W722" s="17"/>
     </row>
-    <row r="723" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W723" s="17"/>
     </row>
-    <row r="724" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W724" s="17"/>
     </row>
-    <row r="725" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W725" s="17"/>
     </row>
-    <row r="726" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W726" s="17"/>
     </row>
-    <row r="727" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W727" s="17"/>
     </row>
-    <row r="728" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W728" s="17"/>
     </row>
-    <row r="729" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W729" s="17"/>
     </row>
-    <row r="730" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W730" s="17"/>
     </row>
-    <row r="731" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W731" s="17"/>
     </row>
-    <row r="732" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W732" s="17"/>
     </row>
-    <row r="733" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W733" s="17"/>
     </row>
-    <row r="734" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W734" s="17"/>
     </row>
-    <row r="735" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W735" s="17"/>
     </row>
-    <row r="736" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W736" s="17"/>
     </row>
-    <row r="737" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W737" s="17"/>
     </row>
-    <row r="738" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W738" s="17"/>
     </row>
-    <row r="739" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W739" s="17"/>
     </row>
-    <row r="740" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W740" s="17"/>
     </row>
-    <row r="741" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W741" s="17"/>
     </row>
-    <row r="742" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W742" s="17"/>
     </row>
-    <row r="743" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W743" s="17"/>
     </row>
-    <row r="744" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W744" s="17"/>
     </row>
-    <row r="745" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W745" s="17"/>
     </row>
-    <row r="746" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W746" s="17"/>
     </row>
-    <row r="747" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W747" s="17"/>
     </row>
-    <row r="748" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W748" s="17"/>
     </row>
-    <row r="749" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W749" s="17"/>
     </row>
-    <row r="750" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W750" s="17"/>
     </row>
-    <row r="751" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W751" s="17"/>
     </row>
-    <row r="752" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W752" s="17"/>
     </row>
-    <row r="753" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W753" s="17"/>
     </row>
-    <row r="754" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W754" s="17"/>
     </row>
-    <row r="755" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W755" s="17"/>
     </row>
-    <row r="756" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W756" s="17"/>
     </row>
-    <row r="757" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W757" s="17"/>
     </row>
-    <row r="758" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W758" s="17"/>
     </row>
-    <row r="759" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W759" s="17"/>
     </row>
-    <row r="760" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W760" s="17"/>
     </row>
-    <row r="761" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W761" s="17"/>
     </row>
-    <row r="762" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W762" s="17"/>
     </row>
-    <row r="763" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W763" s="17"/>
     </row>
-    <row r="764" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W764" s="17"/>
     </row>
-    <row r="765" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W765" s="17"/>
     </row>
-    <row r="766" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W766" s="17"/>
     </row>
-    <row r="767" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W767" s="17"/>
     </row>
-    <row r="768" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W768" s="17"/>
     </row>
-    <row r="769" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W769" s="17"/>
     </row>
-    <row r="770" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W770" s="17"/>
     </row>
-    <row r="771" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W771" s="17"/>
     </row>
-    <row r="772" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W772" s="17"/>
     </row>
-    <row r="773" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W773" s="17"/>
     </row>
-    <row r="774" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W774" s="17"/>
     </row>
-    <row r="775" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W775" s="17"/>
     </row>
-    <row r="776" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W776" s="17"/>
     </row>
-    <row r="777" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W777" s="17"/>
     </row>
-    <row r="778" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W778" s="17"/>
     </row>
-    <row r="779" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W779" s="17"/>
     </row>
-    <row r="780" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W780" s="17"/>
     </row>
-    <row r="781" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W781" s="17"/>
     </row>
-    <row r="782" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W782" s="17"/>
     </row>
-    <row r="783" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W783" s="17"/>
     </row>
-    <row r="784" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W784" s="17"/>
     </row>
-    <row r="785" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W785" s="17"/>
     </row>
-    <row r="786" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W786" s="17"/>
     </row>
-    <row r="787" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W787" s="17"/>
     </row>
-    <row r="788" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W788" s="17"/>
     </row>
-    <row r="789" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W789" s="17"/>
     </row>
-    <row r="790" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W790" s="17"/>
     </row>
-    <row r="791" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W791" s="17"/>
     </row>
-    <row r="792" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W792" s="17"/>
     </row>
-    <row r="793" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W793" s="17"/>
     </row>
-    <row r="794" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W794" s="17"/>
     </row>
-    <row r="795" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W795" s="17"/>
     </row>
-    <row r="796" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W796" s="17"/>
     </row>
-    <row r="797" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W797" s="17"/>
     </row>
-    <row r="798" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W798" s="17"/>
     </row>
-    <row r="799" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W799" s="17"/>
     </row>
-    <row r="800" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W800" s="17"/>
     </row>
-    <row r="801" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W801" s="17"/>
     </row>
-    <row r="802" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W802" s="17"/>
     </row>
-    <row r="803" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W803" s="17"/>
     </row>
-    <row r="804" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W804" s="17"/>
     </row>
-    <row r="805" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W805" s="17"/>
     </row>
-    <row r="806" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W806" s="17"/>
     </row>
-    <row r="807" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W807" s="17"/>
     </row>
-    <row r="808" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W808" s="17"/>
     </row>
-    <row r="809" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W809" s="17"/>
     </row>
-    <row r="810" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W810" s="17"/>
     </row>
-    <row r="811" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W811" s="17"/>
     </row>
-    <row r="812" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W812" s="17"/>
     </row>
-    <row r="813" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W813" s="17"/>
     </row>
-    <row r="814" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W814" s="17"/>
     </row>
-    <row r="815" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W815" s="17"/>
     </row>
-    <row r="816" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W816" s="17"/>
     </row>
-    <row r="817" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W817" s="17"/>
     </row>
-    <row r="818" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W818" s="17"/>
     </row>
-    <row r="819" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W819" s="17"/>
     </row>
-    <row r="820" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W820" s="17"/>
     </row>
-    <row r="821" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W821" s="17"/>
     </row>
-    <row r="822" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W822" s="17"/>
     </row>
-    <row r="823" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W823" s="17"/>
     </row>
-    <row r="824" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W824" s="17"/>
     </row>
-    <row r="825" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W825" s="17"/>
     </row>
-    <row r="826" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W826" s="17"/>
     </row>
-    <row r="827" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W827" s="17"/>
     </row>
-    <row r="828" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W828" s="17"/>
     </row>
-    <row r="829" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W829" s="17"/>
     </row>
-    <row r="830" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W830" s="17"/>
     </row>
-    <row r="831" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W831" s="17"/>
     </row>
-    <row r="832" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W832" s="17"/>
     </row>
-    <row r="833" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W833" s="17"/>
     </row>
-    <row r="834" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W834" s="17"/>
     </row>
-    <row r="835" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W835" s="17"/>
     </row>
-    <row r="836" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W836" s="17"/>
     </row>
-    <row r="837" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W837" s="17"/>
     </row>
-    <row r="838" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W838" s="17"/>
     </row>
-    <row r="839" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W839" s="17"/>
     </row>
-    <row r="840" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W840" s="17"/>
     </row>
-    <row r="841" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W841" s="17"/>
     </row>
-    <row r="842" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W842" s="17"/>
     </row>
-    <row r="843" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W843" s="17"/>
     </row>
-    <row r="844" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W844" s="17"/>
     </row>
-    <row r="845" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W845" s="17"/>
     </row>
-    <row r="846" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W846" s="17"/>
     </row>
-    <row r="847" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W847" s="17"/>
     </row>
-    <row r="848" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W848" s="17"/>
     </row>
-    <row r="849" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W849" s="17"/>
     </row>
-    <row r="850" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W850" s="17"/>
     </row>
-    <row r="851" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W851" s="17"/>
     </row>
-    <row r="852" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W852" s="17"/>
     </row>
-    <row r="853" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W853" s="17"/>
     </row>
-    <row r="854" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W854" s="17"/>
     </row>
-    <row r="855" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W855" s="17"/>
     </row>
-    <row r="856" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W856" s="17"/>
     </row>
-    <row r="857" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W857" s="17"/>
     </row>
-    <row r="858" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W858" s="17"/>
     </row>
-    <row r="859" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W859" s="17"/>
     </row>
-    <row r="860" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W860" s="17"/>
     </row>
-    <row r="861" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W861" s="17"/>
     </row>
-    <row r="862" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W862" s="17"/>
     </row>
-    <row r="863" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W863" s="17"/>
     </row>
-    <row r="864" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W864" s="17"/>
     </row>
-    <row r="865" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W865" s="17"/>
     </row>
-    <row r="866" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W866" s="17"/>
     </row>
-    <row r="867" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W867" s="17"/>
     </row>
-    <row r="868" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W868" s="17"/>
     </row>
-    <row r="869" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W869" s="17"/>
     </row>
-    <row r="870" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W870" s="17"/>
     </row>
-    <row r="871" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W871" s="17"/>
     </row>
-    <row r="872" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W872" s="17"/>
     </row>
-    <row r="873" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W873" s="17"/>
     </row>
-    <row r="874" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W874" s="17"/>
     </row>
-    <row r="875" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W875" s="17"/>
     </row>
-    <row r="876" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W876" s="17"/>
     </row>
-    <row r="877" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W877" s="17"/>
     </row>
-    <row r="878" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W878" s="17"/>
     </row>
-    <row r="879" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W879" s="17"/>
     </row>
-    <row r="880" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W880" s="17"/>
     </row>
-    <row r="881" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W881" s="17"/>
     </row>
-    <row r="882" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W882" s="17"/>
     </row>
-    <row r="883" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W883" s="17"/>
     </row>
-    <row r="884" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W884" s="17"/>
     </row>
-    <row r="885" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W885" s="17"/>
     </row>
-    <row r="886" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W886" s="17"/>
     </row>
-    <row r="887" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W887" s="17"/>
     </row>
-    <row r="888" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W888" s="17"/>
     </row>
-    <row r="889" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W889" s="17"/>
     </row>
-    <row r="890" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W890" s="17"/>
     </row>
-    <row r="891" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W891" s="17"/>
     </row>
-    <row r="892" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W892" s="17"/>
     </row>
-    <row r="893" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W893" s="17"/>
     </row>
-    <row r="894" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W894" s="17"/>
     </row>
-    <row r="895" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W895" s="17"/>
     </row>
-    <row r="896" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W896" s="17"/>
     </row>
-    <row r="897" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W897" s="17"/>
     </row>
-    <row r="898" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W898" s="17"/>
     </row>
-    <row r="899" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W899" s="17"/>
     </row>
-    <row r="900" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W900" s="17"/>
     </row>
-    <row r="901" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W901" s="17"/>
     </row>
-    <row r="902" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W902" s="17"/>
     </row>
-    <row r="903" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W903" s="17"/>
     </row>
-    <row r="904" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W904" s="17"/>
     </row>
-    <row r="905" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W905" s="17"/>
     </row>
-    <row r="906" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W906" s="17"/>
     </row>
-    <row r="907" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W907" s="17"/>
     </row>
-    <row r="908" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W908" s="17"/>
     </row>
-    <row r="909" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W909" s="17"/>
     </row>
-    <row r="910" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W910" s="17"/>
     </row>
-    <row r="911" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W911" s="17"/>
     </row>
-    <row r="912" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W912" s="17"/>
     </row>
-    <row r="913" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W913" s="17"/>
     </row>
-    <row r="914" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W914" s="17"/>
     </row>
-    <row r="915" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W915" s="17"/>
     </row>
-    <row r="916" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W916" s="17"/>
     </row>
-    <row r="917" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W917" s="17"/>
     </row>
-    <row r="918" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W918" s="17"/>
     </row>
-    <row r="919" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W919" s="17"/>
     </row>
-    <row r="920" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W920" s="17"/>
     </row>
-    <row r="921" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W921" s="17"/>
     </row>
-    <row r="922" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W922" s="17"/>
     </row>
-    <row r="923" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W923" s="17"/>
     </row>
-    <row r="924" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W924" s="17"/>
     </row>
-    <row r="925" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W925" s="17"/>
     </row>
-    <row r="926" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W926" s="17"/>
     </row>
-    <row r="927" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W927" s="17"/>
     </row>
-    <row r="928" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W928" s="17"/>
     </row>
-    <row r="929" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W929" s="17"/>
     </row>
-    <row r="930" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W930" s="17"/>
     </row>
-    <row r="931" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W931" s="17"/>
     </row>
-    <row r="932" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W932" s="17"/>
     </row>
-    <row r="933" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W933" s="17"/>
     </row>
-    <row r="934" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W934" s="17"/>
     </row>
-    <row r="935" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W935" s="17"/>
     </row>
-    <row r="936" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W936" s="17"/>
     </row>
-    <row r="937" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W937" s="17"/>
     </row>
-    <row r="938" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W938" s="17"/>
     </row>
-    <row r="939" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W939" s="17"/>
     </row>
-    <row r="940" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W940" s="17"/>
     </row>
-    <row r="941" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W941" s="17"/>
     </row>
-    <row r="942" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W942" s="17"/>
     </row>
-    <row r="943" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W943" s="17"/>
     </row>
-    <row r="944" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W944" s="17"/>
     </row>
-    <row r="945" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W945" s="17"/>
     </row>
-    <row r="946" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W946" s="17"/>
     </row>
-    <row r="947" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W947" s="17"/>
     </row>
-    <row r="948" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W948" s="17"/>
     </row>
-    <row r="949" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W949" s="17"/>
     </row>
-    <row r="950" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W950" s="17"/>
     </row>
-    <row r="951" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W951" s="17"/>
     </row>
-    <row r="952" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W952" s="17"/>
     </row>
-    <row r="953" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W953" s="17"/>
     </row>
-    <row r="954" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W954" s="17"/>
     </row>
-    <row r="955" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W955" s="17"/>
     </row>
-    <row r="956" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W956" s="17"/>
     </row>
-    <row r="957" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W957" s="17"/>
     </row>
-    <row r="958" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W958" s="17"/>
     </row>
-    <row r="959" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W959" s="17"/>
     </row>
-    <row r="960" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W960" s="17"/>
     </row>
-    <row r="961" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W961" s="17"/>
     </row>
-    <row r="962" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W962" s="17"/>
     </row>
-    <row r="963" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W963" s="17"/>
     </row>
-    <row r="964" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W964" s="17"/>
     </row>
-    <row r="965" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W965" s="17"/>
     </row>
-    <row r="966" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W966" s="17"/>
     </row>
-    <row r="967" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W967" s="17"/>
     </row>
-    <row r="968" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W968" s="17"/>
     </row>
-    <row r="969" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W969" s="17"/>
     </row>
-    <row r="970" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W970" s="17"/>
     </row>
-    <row r="971" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W971" s="17"/>
     </row>
-    <row r="972" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W972" s="17"/>
     </row>
-    <row r="973" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W973" s="17"/>
     </row>
-    <row r="974" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W974" s="17"/>
     </row>
-    <row r="975" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W975" s="17"/>
     </row>
-    <row r="976" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W976" s="17"/>
     </row>
-    <row r="977" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W977" s="17"/>
     </row>
-    <row r="978" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W978" s="17"/>
     </row>
-    <row r="979" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W979" s="17"/>
     </row>
-    <row r="980" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W980" s="17"/>
     </row>
-    <row r="981" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W981" s="17"/>
     </row>
-    <row r="982" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W982" s="17"/>
     </row>
-    <row r="983" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W983" s="17"/>
     </row>
-    <row r="984" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W984" s="17"/>
     </row>
-    <row r="985" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W985" s="17"/>
     </row>
-    <row r="986" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W986" s="17"/>
     </row>
-    <row r="987" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W987" s="17"/>
     </row>
-    <row r="988" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W988" s="17"/>
     </row>
-    <row r="989" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W989" s="17"/>
     </row>
-    <row r="990" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W990" s="17"/>
     </row>
-    <row r="991" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W991" s="17"/>
     </row>
-    <row r="992" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W992" s="17"/>
     </row>
-    <row r="993" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W993" s="17"/>
     </row>
-    <row r="994" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W994" s="17"/>
     </row>
-    <row r="995" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W995" s="17"/>
     </row>
-    <row r="996" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W996" s="17"/>
     </row>
-    <row r="997" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W997" s="17"/>
     </row>
-    <row r="998" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W998" s="17"/>
     </row>
-    <row r="999" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W999" s="17"/>
     </row>
-    <row r="1000" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W1000" s="17"/>
     </row>
   </sheetData>
+  <autoFilter ref="O1:O1000" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -49407,24 +49408,24 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>355</v>
       </c>
@@ -49436,29 +49437,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_dlc_DocId xmlns="6738d291-9ef4-4576-8f68-d5e9024c4857">HTZJY7NWZ5AD-934185346-63</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="6738d291-9ef4-4576-8f68-d5e9024c4857">
-      <Url>https://cic.itesm.mx/_layouts/15/DocIdRedir.aspx?ID=HTZJY7NWZ5AD-934185346-63</Url>
-      <Description>HTZJY7NWZ5AD-934185346-63</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -49506,6 +49484,29 @@
     <Filter/>
   </Receiver>
 </spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_dlc_DocId xmlns="6738d291-9ef4-4576-8f68-d5e9024c4857">HTZJY7NWZ5AD-934185346-63</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="6738d291-9ef4-4576-8f68-d5e9024c4857">
+      <Url>https://cic.itesm.mx/_layouts/15/DocIdRedir.aspx?ID=HTZJY7NWZ5AD-934185346-63</Url>
+      <Description>HTZJY7NWZ5AD-934185346-63</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49691,18 +49692,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4E5F5D6-6BC5-447D-844C-D445E0E88341}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AE47B42-6172-42A3-BA91-88293EC25D0D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6738d291-9ef4-4576-8f68-d5e9024c4857"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -49716,9 +49708,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AE47B42-6172-42A3-BA91-88293EC25D0D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4E5F5D6-6BC5-447D-844C-D445E0E88341}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6738d291-9ef4-4576-8f68-d5e9024c4857"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
